--- a/types.xlsx
+++ b/types.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>TypeID</t>
   </si>
@@ -71,13 +71,19 @@
     <t>lodging</t>
   </si>
   <si>
+    <t>convenience_store</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
     <t>car_repair</t>
   </si>
   <si>
     <t>local_government_office</t>
   </si>
   <si>
-    <t>police</t>
+    <t>airport</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +587,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
